--- a/数据整理/stocks/港股/00144-招商局港口.xlsx
+++ b/数据整理/stocks/港股/00144-招商局港口.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>75.25</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -846,25 +976,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93.34</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.42</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00144-招商局港口.xlsx
+++ b/数据整理/stocks/港股/00144-招商局港口.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,210 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00144-招商局港口.xlsx
+++ b/数据整理/stocks/港股/00144-招商局港口.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1332,4 +1333,438 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00144-招商局港口.xlsx
+++ b/数据整理/stocks/港股/00144-招商局港口.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1767,4 +1768,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00144-招商局港口.xlsx
+++ b/数据整理/stocks/港股/00144-招商局港口.xlsx
@@ -1792,12 +1792,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00144-招商局港口.xlsx
+++ b/数据整理/stocks/港股/00144-招商局港口.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,281 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005702</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒生前海港股通高股息低波动指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -738,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -827,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0408</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -865,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -903,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -941,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -989,26 +805,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1017,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1055,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1093,36 +909,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>501308</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,36 +1245,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0549</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1431,36 +1283,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0408</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1469,36 +1321,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1507,36 +1359,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1545,36 +1397,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1593,26 +1445,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1621,36 +1473,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>79.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1659,36 +1511,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77.99</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1697,72 +1549,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1776,96 +1592,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00144-招商局港口.xlsx
+++ b/数据整理/stocks/港股/00144-招商局港口.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -982,7 +1131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1586,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
